--- a/gradSheet.xlsx
+++ b/gradSheet.xlsx
@@ -11,15 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Roll no</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Marks</t>
   </si>
   <si>
     <t>B22PH001</t>
+  </si>
+  <si>
+    <t>Alpha</t>
   </si>
   <si>
     <t>B22PH002</t>
@@ -394,330 +400,556 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>20.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>98.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>99.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>29.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>67.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>65.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>56.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>44.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>78.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>34.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>67.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>34.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
         <v>31.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>89.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>89.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
         <v>65.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>54.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>67.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>56.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>53.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>53.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>52.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
         <v>73.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
         <v>75.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>89.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>45.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
         <v>49.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
         <v>50.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
         <v>60.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
         <v>42.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
         <v>41.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
         <v>12.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
         <v>74.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
         <v>79.0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
         <v>39.0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
         <v>48.0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
         <v>61.0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
         <v>56.0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
         <v>40.0</v>
       </c>
     </row>
